--- a/xlsx/资本主义_intext.xlsx
+++ b/xlsx/资本主义_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1255">
   <si>
     <t>资本主义</t>
   </si>
@@ -29,7 +29,7 @@
     <t>资本主义 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_资本主义</t>
+    <t>政策_政策_美国_资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>封閉經濟</t>
+    <t>封闭经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E7%BB%8F%E6%B5%8E</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E7%89%A9%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>禮物經濟</t>
+    <t>礼物经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AD%A3%E5%BC%8F%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>非正式經濟</t>
+    <t>非正式经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>資訊經濟</t>
+    <t>资讯经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社團主義</t>
+    <t>社团主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>自由市場</t>
+    <t>自由市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E8%B2%A1</t>
   </si>
   <si>
-    <t>資本財</t>
+    <t>资本财</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E8%B5%84%E6%96%99</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B1%E5%82%AD</t>
   </si>
   <si>
-    <t>僱傭</t>
+    <t>僱佣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
+    <t>货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87</t>
   </si>
   <si>
-    <t>投資</t>
+    <t>投资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7</t>
@@ -257,27 +257,21 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E6%B0%A3%E5%BE%AA%E7%92%B0</t>
   </si>
   <si>
-    <t>景氣循環</t>
+    <t>景气循环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>計劃經濟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>經濟自由主義</t>
+    <t>经济自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>市場經濟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
   </si>
   <si>
@@ -293,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E5%8D%B0%E6%AD%90%E8%AA%9E</t>
   </si>
   <si>
-    <t>原始印歐語</t>
+    <t>原始印欧语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -311,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E6%9D%8E%E5%98%89%E5%9C%96</t>
   </si>
   <si>
-    <t>大衛·李嘉圖</t>
+    <t>大卫·李嘉图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6%E5%92%8C%E7%A8%8E%E6%94%B6%E5%8E%9F%E7%90%86</t>
@@ -329,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E7%88%BE-%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E6%99%AE%E9%AD%AF%E6%9D%B1</t>
   </si>
   <si>
-    <t>皮埃爾-約瑟夫·普魯東</t>
+    <t>皮埃尔-约瑟夫·普鲁东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E5%AE%B6</t>
@@ -341,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E9%A6%AC%E5%85%8B%E6%80%9D</t>
   </si>
   <si>
-    <t>卡爾·馬克思</t>
+    <t>卡尔·马克思</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E6%81%A9%E6%A0%BC%E6%96%AF</t>
@@ -359,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E6%A2%85%E5%85%8B%E6%AF%94%E6%96%AF%C2%B7%E8%96%A9%E5%85%8B%E8%90%8A</t>
   </si>
   <si>
-    <t>威廉·梅克比斯·薩克萊</t>
+    <t>威廉·梅克比斯·萨克莱</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Werner_Sombart</t>
@@ -377,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99%E5%80%AB%E7%90%86%E8%88%87%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9%E7%B2%BE%E7%A5%9E</t>
   </si>
   <si>
-    <t>新教倫理與資本主義精神</t>
+    <t>新教伦理与资本主义精神</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E8%B5%84</t>
@@ -401,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已開發國家</t>
+    <t>已开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3</t>
@@ -431,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%B6%AD%E5%B8%8C%C2%B7%E9%A6%AE%C2%B7%E7%B1%B3%E5%A1%9E%E6%96%AF</t>
   </si>
   <si>
-    <t>路德維希·馮·米塞斯</t>
+    <t>路德维希·冯·米塞斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
@@ -443,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Oracle</t>
@@ -455,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E6%A8%A1%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>規模經濟</t>
+    <t>规模经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A</t>
@@ -521,13 +515,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%A8%E7%8F%BE%E5%80%BC%E6%B3%95</t>
   </si>
   <si>
-    <t>淨現值法</t>
+    <t>净现值法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E8%88%87%E9%9C%80%E6%B1%82</t>
   </si>
   <si>
-    <t>供給與需求</t>
+    <t>供给与需求</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99%E5%92%8C%E9%9C%80%E6%B1%82</t>
@@ -545,13 +539,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9D%87%E8%A1%A1</t>
   </si>
   <si>
-    <t>經濟均衡</t>
+    <t>经济均衡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87%E5%A0%B1%E9%85%AC%E7%8E%87</t>
   </si>
   <si>
-    <t>投資報酬率</t>
+    <t>投资报酬率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA</t>
@@ -575,25 +569,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9C%8B%E4%B8%8D%E8%A6%8B%E7%9A%84%E6%89%8B</t>
   </si>
   <si>
-    <t>看不見的手</t>
+    <t>看不见的手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E4%BD%9B%E5%88%A9%E6%B0%91</t>
   </si>
   <si>
-    <t>米爾頓·佛利民</t>
+    <t>米尔顿·佛利民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%B2%AC%E4%BB%BB</t>
   </si>
   <si>
-    <t>社會責任</t>
+    <t>社会责任</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>公共選擇理論</t>
+    <t>公共选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -611,19 +605,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%99%E6%9F%93</t>
   </si>
   <si>
-    <t>汙染</t>
+    <t>污染</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BD%8E%E5%B7%A5%E8%B3%87</t>
   </si>
   <si>
-    <t>最低工資</t>
+    <t>最低工资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E6%B3%95</t>
   </si>
   <si>
-    <t>競爭法</t>
+    <t>竞争法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E5%B0%94</t>
@@ -635,13 +629,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>奧地利經濟學派</t>
+    <t>奥地利经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E8%BF%AB%E6%80%A7%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>強迫性壟斷</t>
+    <t>强迫性垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A%E5%AE%B6%E7%B2%BE%E7%A5%9E</t>
@@ -695,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
+    <t>罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
@@ -749,13 +743,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中世紀</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%80%E7%89%A9%E6%B3%95</t>
   </si>
   <si>
-    <t>穀物法</t>
+    <t>谷物法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E7%86%8A%E5%BD%BC%E7%89%B9</t>
@@ -767,13 +758,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>貴金屬</t>
+    <t>贵金属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9C%E8%B2%BC</t>
   </si>
   <si>
-    <t>補貼</t>
+    <t>补贴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%85%B0%E8%A5%BF%E6%96%AF%C2%B7%E5%9F%B9%E6%A0%B9</t>
@@ -785,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%A5%AD%E5%85%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>同業公會</t>
+    <t>同业公会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9D%E5%AF%B9%E5%90%9B%E4%B8%BB%E5%88%B6</t>
@@ -827,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E9%85%8D%E7%B7%9A</t>
   </si>
   <si>
-    <t>裝配線</t>
+    <t>装配线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9T%E5%9E%8B%E8%BD%A6</t>
@@ -851,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%BB%A0</t>
   </si>
   <si>
-    <t>工廠</t>
+    <t>工厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%B7%A5</t>
@@ -881,13 +872,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>共產國家</t>
+    <t>共产国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
@@ -923,25 +914,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%B7%A5%E6%A5%AD%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>後工業社會</t>
+    <t>后工业社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%9C%E6%BB%AF%E6%80%A7%E9%80%9A%E8%B2%A8%E8%86%A8%E8%84%B9</t>
   </si>
   <si>
-    <t>停滯性通貨膨脹</t>
+    <t>停滞性通货膨胀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E5%82%85%E5%88%A9%E6%9B%BC</t>
   </si>
   <si>
-    <t>米爾頓·傅利曼</t>
+    <t>米尔顿·傅利曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E5%93%88%E8%80%B6%E5%85%8B</t>
@@ -977,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥經濟學派</t>
+    <t>芝加哥经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E4%B8%BB%E4%B9%89</t>
@@ -989,7 +980,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%AE%E5%8B%95%E5%8C%AF%E7%8E%87</t>
   </si>
   <si>
-    <t>浮動匯率</t>
+    <t>浮动汇率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96</t>
@@ -1001,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E6%AB%83%E8%88%B9</t>
   </si>
   <si>
-    <t>貨櫃船</t>
+    <t>货柜船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%A0%A1</t>
@@ -1013,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%A6%AE%E6%B5%B7%E9%81%8B</t>
   </si>
   <si>
-    <t>長榮海運</t>
+    <t>长荣海运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%B8%E6%98%93</t>
@@ -1037,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -1055,7 +1046,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>新興工業化國家</t>
+    <t>新兴工业化国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%9E%E6%AF%94%E4%BA%9A</t>
@@ -1067,7 +1058,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9C%8B%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>跨國公司</t>
+    <t>跨国公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%8C%85</t>
@@ -1091,19 +1082,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典自由主義</t>
+    <t>古典自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E6%9D%8E%E5%98%89%E5%9B%BE</t>
   </si>
   <si>
-    <t>大卫·李嘉图</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%93-%E5%B7%B4%E8%92%82%E6%96%AF%E7%89%B9%C2%B7%E8%B3%BD%E4%BC%8A</t>
   </si>
   <si>
-    <t>讓-巴蒂斯特·賽伊</t>
+    <t>让-巴蒂斯特·赛伊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%96%AF%E5%9B%BE%E5%B0%94%E7%89%B9%C2%B7%E5%AF%86%E5%B0%94</t>
@@ -1127,13 +1115,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AF%8C%E8%AB%96</t>
   </si>
   <si>
-    <t>國富論</t>
+    <t>国富论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E5%88%A9%E5%BE%97</t>
   </si>
   <si>
-    <t>貿易利得</t>
+    <t>贸易利得</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A%E7%BB%84%E7%BB%87%E7%90%86%E8%AE%BA</t>
@@ -1145,9 +1133,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD</t>
   </si>
   <si>
-    <t>競爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E4%BC%98%E5%8A%BF</t>
   </si>
   <si>
@@ -1157,9 +1142,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>古典自由主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%89%A9%E5%93%81</t>
   </si>
   <si>
@@ -1169,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E8%B2%BB%E9%81%93%E8%B7%AF</t>
   </si>
   <si>
-    <t>收費道路</t>
+    <t>收费道路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B4%B8%E6%98%93%E5%8C%BA</t>
@@ -1181,7 +1163,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%97%E4%BD%9C%E6%AC%8A</t>
   </si>
   <si>
-    <t>著作權</t>
+    <t>着作权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A0%87</t>
@@ -1199,21 +1181,15 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E9%A9%AC%E5%85%8B%E6%80%9D</t>
   </si>
   <si>
-    <t>卡尔·马克思</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>資產階級</t>
+    <t>资产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -1223,25 +1199,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E5%83%B9%E5%80%BC%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>勞動價值理論</t>
+    <t>劳动价值理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%A9%E4%BD%99%E4%BB%B7%E5%80%BC</t>
   </si>
   <si>
-    <t>剩余价值</t>
+    <t>剩馀价值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9D%E5%89%8A</t>
   </si>
   <si>
-    <t>剝削</t>
+    <t>剥削</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%8C%96</t>
   </si>
   <si>
-    <t>異化</t>
+    <t>异化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B6%E7%BA%A7%E6%96%97%E4%BA%89</t>
@@ -1271,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%AD%B7%E5%8F%B2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>經濟歷史學派</t>
+    <t>经济历史学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA</t>
@@ -1283,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%A9%97</t>
   </si>
   <si>
-    <t>先驗</t>
+    <t>先验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E7%90%86</t>
@@ -1313,13 +1289,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
   </si>
   <si>
-    <t>貴族</t>
+    <t>贵族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%A4%AB</t>
   </si>
   <si>
-    <t>農夫</t>
+    <t>农夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%B4%E8%A8%80</t>
@@ -1343,13 +1319,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%96%AF%E4%B8%B9%C2%B7%E8%8C%83%E4%BC%AF%E5%80%AB</t>
   </si>
   <si>
-    <t>托斯丹·范伯倫</t>
+    <t>托斯丹·范伯伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%AB%E8%80%80%E6%80%A7%E6%B6%88%E8%B2%BB</t>
   </si>
   <si>
-    <t>炫耀性消費</t>
+    <t>炫耀性消费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%88%E7%94%A8</t>
@@ -1361,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%89</t>
   </si>
   <si>
-    <t>國有</t>
+    <t>国有</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%9B%E6%AD%A5%E6%97%B6%E4%BB%A3</t>
@@ -1373,19 +1349,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%8A%A0%E7%88%BE%E5%B8%83%E9%9B%B7%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·加爾布雷斯</t>
+    <t>约翰·加尔布雷斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E9%96%80%E6%A0%BC%E7%88%BE</t>
   </si>
   <si>
-    <t>卡爾·門格爾</t>
+    <t>卡尔·门格尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%B3%95%E8%AB%96%E7%9A%84%E5%80%8B%E4%BA%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>方法論的個人主義</t>
+    <t>方法论的个人主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9B%E9%80%A0%E6%80%A7%E7%A0%B4%E5%9D%8F</t>
@@ -1403,31 +1379,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A7%80%E7%9A%84%E5%83%B9%E5%80%BC%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>主觀的價值理論</t>
+    <t>主观的价值理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%A0%B9%C2%B7%E5%8D%9A%E5%A7%86-%E5%B7%B4%E7%B6%AD%E5%85%8B</t>
   </si>
   <si>
-    <t>歐根·博姆-巴維克</t>
+    <t>欧根·博姆-巴维克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%83%B9%E6%A0%BC%E6%A9%9F%E5%88%B6</t>
   </si>
   <si>
-    <t>自由價格機制</t>
+    <t>自由价格机制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%91%9E%C2%B7%E7%BE%85%E6%96%AF%E5%B7%B4%E5%BE%B7</t>
   </si>
   <si>
-    <t>穆瑞·羅斯巴德</t>
+    <t>穆瑞·罗斯巴德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%A2%85%E7%BA%B3%E5%BE%B7%C2%B7%E5%87%AF%E6%81%A9%E6%96%AF</t>
@@ -1451,13 +1427,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E9%9C%80%E6%B1%82</t>
   </si>
   <si>
-    <t>總需求</t>
+    <t>总需求</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E4%BC%8A%E5%AE%9A%E5%BE%8B</t>
   </si>
   <si>
-    <t>薩伊定律</t>
+    <t>萨伊定律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%A1%B0%E9%80%80</t>
@@ -1475,13 +1451,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E4%B8%BB%E7%BE%A9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>新古典主義經濟學</t>
+    <t>新古典主义经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E5%88%97%E8%A1%A8</t>
@@ -1601,7 +1577,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>平等主義</t>
+    <t>平等主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%B2%BB%E7%BB%B4%E6%96%B0</t>
@@ -1613,9 +1589,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93</t>
   </si>
   <si>
-    <t>污染</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89</t>
   </si>
   <si>
@@ -1655,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>經濟自由</t>
+    <t>经济自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E8%87%AA%E7%94%B1</t>
@@ -1667,49 +1640,49 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9%E8%88%87%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>資本主義與自由</t>
+    <t>资本主义与自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>公民社會</t>
+    <t>公民社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%88%91%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>自我組織</t>
+    <t>自我组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反資本主義</t>
+    <t>反资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E8%A4%87%E4%BD%BF%E7%94%A8</t>
   </si>
   <si>
-    <t>重複使用</t>
+    <t>重复使用</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>勞動經濟學</t>
+    <t>劳动经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E7%9A%84%E4%B8%BB%E8%A7%80%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>價值的主觀理論</t>
+    <t>价值的主观理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>對馬克思主義的批評</t>
+    <t>对马克思主义的批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%A5%E5%B7%A5</t>
@@ -1721,7 +1694,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%AB%BE%E9%BD%8A%E5%85%8B</t>
   </si>
   <si>
-    <t>羅伯特·諾齊克</t>
+    <t>罗伯特·诺齐克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%88%E5%96%84</t>
@@ -1751,7 +1724,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%BF%9F%E5%90%84_(%E6%95%99%E5%AE%97)</t>
   </si>
   <si>
-    <t>方濟各 (教宗)</t>
+    <t>方济各 (教宗)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Online_Etymology_Dictionary</t>
@@ -1763,15 +1736,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%96%AF%E8%92%82%E6%A0%BC%E5%8B%92</t>
   </si>
   <si>
-    <t>喬治·斯蒂格勒</t>
+    <t>乔治·斯蒂格勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E6%96%AF%E5%AF%86</t>
   </si>
   <si>
-    <t>亞當·斯密</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7M%C2%B7%E5%B8%83%E5%9D%8E%E5%8D%97</t>
   </si>
   <si>
@@ -1787,19 +1757,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%85%A7%E6%80%9D%E7%89%B9%C2%B7%E6%9B%BC%E5%BE%B7%E7%88%BE</t>
   </si>
   <si>
-    <t>厄內思特·曼德爾</t>
+    <t>厄内思特·曼德尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E8%AB%96</t>
   </si>
   <si>
-    <t>資本論</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%96%A9%E7%B9%86%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>保羅·薩繆爾森</t>
+    <t>保罗·萨缪尔森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%AF%BA%E5%BE%B7%E8%B1%AA%E6%96%AF</t>
@@ -1823,7 +1790,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E6%A2%85%E6%A3%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>喬治梅森大學</t>
+    <t>乔治梅森大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -1847,7 +1814,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
@@ -1859,19 +1826,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%B6%93%E6%BF%9F%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>歐洲經濟共同體</t>
+    <t>欧洲经济共同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%AE%89%E5%85%A8%E4%BF%9D%E9%9A%9C%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>太平洋安全保障條約</t>
+    <t>太平洋安全保障条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E%E6%A2%9D%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>東南亞條約組織</t>
+    <t>东南亚条约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
@@ -1907,7 +1874,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9C%8B%E5%AE%B6%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>阿拉伯國家聯盟</t>
+    <t>阿拉伯国家联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%89%E5%8F%96%E8%BF%9B%E6%AD%A5%E8%81%94%E7%9B%9F</t>
@@ -1919,13 +1886,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E5%85%AC%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>中部公約組織</t>
+    <t>中部公约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>世界自由民主聯盟</t>
+    <t>世界自由民主联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%B0%94%E5%A1%94%E4%BC%9A%E8%AE%AE</t>
@@ -1949,7 +1916,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B%E8%BB%8D%E4%BA%8B%E4%BD%94%E9%A0%98%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>同盟國軍事佔領德國</t>
+    <t>同盟国军事佔领德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%BB%E7%BA%B3%E7%B2%B9%E5%8C%96</t>
@@ -1991,13 +1958,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E5%BE%B7%E6%94%BF%E7%AD%96%E7%9A%84%E9%87%8D%E8%BF%B0</t>
   </si>
   <si>
-    <t>對德政策的重述</t>
+    <t>对德政策的重述</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%8D%B0%E5%BA%A6%E6%94%AF%E9%82%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第一次印度支那戰爭</t>
+    <t>第一次印度支那战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A%E7%8B%AC%E7%AB%8B%E9%9D%A9%E5%91%BD</t>
@@ -2015,7 +1982,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E9%97%9C%E4%BF%82%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>亞洲關係會議</t>
+    <t>亚洲关系会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%AD%87%E5%B0%94%E8%AE%A1%E5%88%92</t>
@@ -2045,13 +2012,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E5%B0%81%E9%8E%96</t>
   </si>
   <si>
-    <t>柏林封鎖</t>
+    <t>柏林封锁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E7%9B%9F%E5%9C%8B%E7%9A%84%E8%83%8C%E5%8F%9B</t>
   </si>
   <si>
-    <t>西方盟國的背叛</t>
+    <t>西方盟国的背叛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E5%B9%95</t>
@@ -2063,7 +2030,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>東方集團</t>
+    <t>东方集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%9B%BD%E5%85%B1%E5%86%85%E6%88%98</t>
@@ -2075,19 +2042,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%9C%81%E6%88%92%E5%9A%B4%E4%BB%A4</t>
   </si>
   <si>
-    <t>臺灣省戒嚴令</t>
+    <t>台湾省戒严令</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E4%BA%9E%E7%B7%8A%E6%80%A5%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>馬來亞緊急狀態</t>
+    <t>马来亚紧急状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%89%98%E5%A4%AB%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>莫洛托夫計劃</t>
+    <t>莫洛托夫计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B9%E5%B9%95</t>
@@ -2099,7 +2066,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%A3%AE%E5%A0%A1%E5%A4%AB%E5%A9%A6</t>
   </si>
   <si>
-    <t>羅森堡夫婦</t>
+    <t>罗森堡夫妇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
@@ -2111,7 +2078,7 @@
     <t>https://zh.wikipedia.org/wiki/1953%E5%B9%B4%E4%BC%8A%E6%9C%97%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>1953年伊朗政變</t>
+    <t>1953年伊朗政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%BE%B7%E5%85%AD%E4%B8%80%E4%B8%83%E4%BA%8B%E4%BB%B6</t>
@@ -2135,7 +2102,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%B5%B7%E5%B3%BD%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>臺灣海峽危機</t>
+    <t>台湾海峡危机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Geneva_Summit_(1955)</t>
@@ -2153,7 +2120,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%8C%B2%E5%8D%97%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>波茲南事件</t>
+    <t>波兹南事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E5%8D%81%E6%9C%88%E4%BA%8B%E4%BB%B6</t>
@@ -2201,7 +2168,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E9%9A%86%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>萬隆會議</t>
+    <t>万隆会议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bricker_Amendment</t>
@@ -2237,7 +2204,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%97%A5%E5%AE%89%E4%BF%9D%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>美日安保條約</t>
+    <t>美日安保条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E4%B8%80%E4%B9%9D%E9%9D%A9%E5%91%BD</t>
@@ -2249,13 +2216,13 @@
     <t>https://zh.wikipedia.org/wiki/1960%E5%B9%B4U-2%E6%93%8A%E5%A2%9C%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>1960年U-2擊墜事件</t>
+    <t>1960年U-2击坠事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E4%B8%80%E8%99%9F</t>
   </si>
   <si>
-    <t>東方一號</t>
+    <t>东方一号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%AA%E6%B9%BE%E4%BA%8B%E4%BB%B6</t>
@@ -2267,13 +2234,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E5%9C%8D%E7%89%86</t>
   </si>
   <si>
-    <t>柏林圍牆</t>
+    <t>柏林围墙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E6%AE%96%E6%B0%91%E5%9C%B0%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>葡萄牙殖民地戰爭</t>
+    <t>葡萄牙殖民地战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E5%AF%BC%E5%BC%B9%E5%8D%B1%E6%9C%BA</t>
@@ -2285,13 +2252,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E5%88%86%E7%A6%81%E6%AD%A2%E6%A0%B8%E8%A9%A6%E9%A9%97%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>部分禁止核試驗條約</t>
+    <t>部分禁止核试验条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%94%E9%A0%98%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B_(1965%E5%B9%B4%E8%87%B31966%E5%B9%B4)</t>
   </si>
   <si>
-    <t>美國佔領多明尼加共和國 (1965年至1966年)</t>
+    <t>美国佔领多明尼加共和国 (1965年至1966年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
@@ -2309,7 +2276,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
   </si>
   <si>
-    <t>南非種族隔離</t>
+    <t>南非种族隔离</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/South_African_Border_War</t>
@@ -2333,7 +2300,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AE%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>寮國內戰</t>
+    <t>寮国内战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Argentine_Revolution</t>
@@ -2345,13 +2312,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%BB%8D%E6%94%BF%E5%BA%9C%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>希臘軍政府時期</t>
+    <t>希腊军政府时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%9F%8B%E5%B8%83%E6%B4%9B%E8%99%9F%E9%80%9A%E7%94%A8%E7%92%B0%E5%A2%83%E7%A0%94%E7%A9%B6%E8%89%A6</t>
   </si>
   <si>
-    <t>普韋布洛號通用環境研究艦</t>
+    <t>普韦布洛号通用环境研究舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -2375,7 +2342,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%96%87%E5%8C%96%E5%BE%A9%E8%88%88%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>中華文化復興運動</t>
+    <t>中华文化复兴运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%B0%E8%BE%B9%E5%A2%83%E6%88%98%E4%BA%89</t>
@@ -2435,7 +2402,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BE%8511%E8%99%9F</t>
   </si>
   <si>
-    <t>阿波羅11號</t>
+    <t>阿波罗11号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%93%E5%92%8C%E6%94%BF%E7%AD%96</t>
@@ -2465,7 +2432,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>柬埔寨內戰</t>
+    <t>柬埔寨内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E8%89%B2%E4%B9%9D%E6%9C%88</t>
@@ -2495,7 +2462,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1972%E5%B9%B4%E5%B0%BC%E5%85%8B%E6%9D%BE%E8%AE%BF%E5%8D%8E</t>
@@ -2507,13 +2474,13 @@
     <t>https://zh.wikipedia.org/wiki/1973%E5%B9%B4%E6%99%BA%E5%88%A9%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>1973年智利政變</t>
+    <t>1973年智利政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%96%E7%BD%AA%E6%97%A5%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>贖罪日戰爭</t>
+    <t>赎罪日战争</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1973_Thai_popular_uprising</t>
@@ -2543,7 +2510,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E%E5%8F%A2%E6%9E%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>羅德西亞叢林戰爭</t>
+    <t>罗德西亚丛林战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89%E5%86%85%E6%88%98</t>
@@ -2555,7 +2522,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E4%B8%89%E6%AF%94%E5%85%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>莫三比克內戰</t>
+    <t>莫三比克内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E9%97%A8%E5%BA%97%E4%BA%8B%E4%BB%B6</t>
@@ -2567,25 +2534,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%8A%A0%E7%99%BB%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>歐加登戰爭</t>
+    <t>欧加登战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>衣索比亞內戰</t>
+    <t>衣索比亚内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>黎巴嫩內戰</t>
+    <t>黎巴嫩内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E8%B6%8A%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>柬越戰爭</t>
+    <t>柬越战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1979%E5%B9%B4%E4%B8%AD%E8%B6%8A%E6%88%98%E4%BA%89</t>
@@ -2603,19 +2570,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BC%8A%E6%96%AF%E8%98%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>伊朗伊斯蘭革命</t>
+    <t>伊朗伊斯兰革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%80%E9%B7%B9%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>兀鷹行動</t>
+    <t>兀鹰行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AA%AF%E9%AB%92%E6%88%B0%E7%88%AD_(%E9%98%BF%E6%A0%B9%E5%BB%B7)</t>
   </si>
   <si>
-    <t>骯髒戰爭 (阿根廷)</t>
+    <t>肮脏战争 (阿根廷)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD%E8%A7%A3%E6%94%BE%E6%88%98%E4%BA%89</t>
@@ -2633,13 +2600,13 @@
     <t>https://zh.wikipedia.org/wiki/1978%E5%B9%B4%E5%8D%97%E9%BB%8E%E5%B7%B4%E5%AB%A9%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>1978年南黎巴嫩衝突</t>
+    <t>1978年南黎巴嫩冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A5%BF%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>若望·保祿二世</t>
+    <t>若望·保禄二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%98%E4%BA%89_(1979%E5%B9%B4)</t>
@@ -2657,7 +2624,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>福克蘭群島戰爭</t>
+    <t>福克兰群岛战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E6%AC%A1%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -2687,7 +2654,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%98%E7%B5%90%E5%B7%A5%E8%81%AF</t>
   </si>
   <si>
-    <t>團結工聯</t>
+    <t>团结工联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E4%BC%8A%E6%88%98%E4%BA%89</t>
@@ -2705,13 +2672,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E8%88%AA%E7%A9%BA007%E8%99%9F%E7%8F%AD%E6%A9%9F%E7%A9%BA%E9%9B%A3</t>
   </si>
   <si>
-    <t>大韓航空007號班機空難</t>
+    <t>大韩航空007号班机空难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1983%E5%B9%B4%E5%84%AA%E7%A7%80%E5%B0%84%E6%89%8B%E6%BC%94%E7%BF%92</t>
   </si>
   <si>
-    <t>1983年優秀射手演習</t>
+    <t>1983年优秀射手演习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E7%90%83%E5%A4%A7%E6%88%98%E8%AE%A1%E5%88%92</t>
@@ -2723,13 +2690,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94</t>
   </si>
   <si>
-    <t>入侵格林納達</t>
+    <t>入侵格林纳达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E6%96%B0%E9%96%8B%E6%94%BE</t>
   </si>
   <si>
-    <t>革新開放</t>
+    <t>革新开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%8A%9B%E9%87%8F%E9%9D%A9%E5%91%BD_(1986%E5%B9%B4)</t>
@@ -2747,19 +2714,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%A4%A7%E8%B5%B7%E7%BE%A9</t>
   </si>
   <si>
-    <t>第一次巴勒斯坦大起義</t>
+    <t>第一次巴勒斯坦大起义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E8%88%AA%E7%A9%BA655%E8%99%9F%E7%8F%AD%E6%A9%9F%E7%A9%BA%E9%9B%A3</t>
   </si>
   <si>
-    <t>伊朗航空655號班機空難</t>
+    <t>伊朗航空655号班机空难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/8888%E6%B0%91%E4%B8%BB%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>8888民主運動</t>
+    <t>8888民主运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1988%E5%B9%B4%E6%99%BA%E5%88%A9%E5%85%AC%E6%8A%95</t>
@@ -2789,19 +2756,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E6%B5%B7%E4%B9%8B%E8%B7%AF</t>
   </si>
   <si>
-    <t>波羅的海之路</t>
+    <t>波罗的海之路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%B5%9D%E7%B5%A8%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>天鵝絨革命</t>
+    <t>天鹅绒革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1989%E5%B9%B4%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>1989年羅馬尼亞革命</t>
+    <t>1989年罗马尼亚革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%80%9D%E7%BB%B4_(%E8%8B%8F%E8%81%94)</t>
@@ -2819,13 +2786,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>開放政策</t>
+    <t>开放政策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%B5%9D%E7%B5%A8%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>天鵝絨分離</t>
+    <t>天鹅绒分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1990%E5%B9%B4%E8%92%99%E5%8F%A4%E6%B0%91%E4%B8%BB%E9%9D%A9%E5%91%BD</t>
@@ -2837,13 +2804,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%96%80%E7%B5%B1%E4%B8%80</t>
   </si>
   <si>
-    <t>也門統一</t>
+    <t>也门统一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E8%A7%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>南斯拉夫解體</t>
+    <t>南斯拉夫解体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B9%BE%E6%88%98%E4%BA%89</t>
@@ -2855,7 +2822,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%BE%B7%E7%B5%B1%E4%B8%80</t>
   </si>
   <si>
-    <t>兩德統一</t>
+    <t>两德统一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
@@ -2873,19 +2840,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>聯邦調查局</t>
+    <t>联邦调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家安全局</t>
+    <t>美国国家安全局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E5%AF%86%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>秘密情報局</t>
+    <t>秘密情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%A0%BC%E5%8B%83</t>
@@ -2903,7 +2870,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E6%83%85%E5%A0%B1%E5%8F%8A%E7%89%B9%E6%AE%8A%E4%BD%BF%E5%91%BD%E5%B1%80</t>
   </si>
   <si>
-    <t>以色列情報及特殊使命局</t>
+    <t>以色列情报及特殊使命局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E5%A4%96%E6%83%85%E6%8A%A5%E5%92%8C%E5%8F%8D%E9%97%B4%E8%B0%8D%E5%B1%80</t>
@@ -2921,13 +2888,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%BB%8D%E5%82%99%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>核軍備競賽</t>
+    <t>核军备竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>太空競賽</t>
+    <t>太空竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%B4%E5%A0%B5%E6%94%BF%E7%AD%96</t>
@@ -2945,7 +2912,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E8%AB%BE%E9%AA%A8%E7%89%8C%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>多米諾骨牌理論</t>
+    <t>多米诺骨牌理论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kennedy_Doctrine</t>
@@ -2975,7 +2942,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E6%A3%AE%E4%B8%BB%E7%BE%A9_(%E5%A4%96%E4%BA%A4)</t>
   </si>
   <si>
-    <t>詹森主義 (外交)</t>
+    <t>詹森主义 (外交)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E5%88%97%E6%97%A5%E6%B6%85%E5%A4%AB%E4%B8%BB%E4%B9%89</t>
@@ -2987,19 +2954,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%E6%A3%AE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>尼克森主義</t>
+    <t>尼克森主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B8%83%E5%88%A9%E5%B8%8C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>烏布利希主義</t>
+    <t>乌布利希主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>卡特主義</t>
+    <t>卡特主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%A0%B9%E4%B8%BB%E4%B9%89</t>
@@ -3029,13 +2996,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新古典經濟學派</t>
+    <t>新古典经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>雷根經濟學</t>
+    <t>雷根经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%88%87%E5%B0%94%E4%B8%BB%E4%B9%89</t>
@@ -3047,13 +3014,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基督教民主主義</t>
+    <t>基督教民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新保守主義</t>
+    <t>新保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E5%88%97%E5%AE%81%E4%B8%BB%E4%B9%89</t>
@@ -3107,7 +3074,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E9%AD%AF%E6%9B%89%E5%A4%AB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>赫魯曉夫主義</t>
+    <t>赫鲁晓夫主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E6%89%98%E4%B8%BB%E4%B9%89</t>
@@ -3131,7 +3098,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%93%A6%E6%8B%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>格瓦拉主義</t>
+    <t>格瓦拉主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%8B%89%E4%BB%80%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
@@ -3161,13 +3128,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%AE%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>錫安主義</t>
+    <t>锡安主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>三民主義</t>
+    <t>三民主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E4%B8%BB%E4%B9%89</t>
@@ -3185,7 +3152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>解放神學</t>
+    <t>解放神学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Active_measures</t>
@@ -3233,13 +3200,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>台灣問題</t>
+    <t>台湾问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6%E5%8D%97%E5%8C%97%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>朝鮮半島南北關係</t>
+    <t>朝鲜半岛南北关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E8%89%B2%E6%81%90%E6%85%8C</t>
@@ -3251,13 +3218,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AB%E6%97%A5%E4%B9%8B%E9%90%98</t>
   </si>
   <si>
-    <t>末日之鐘</t>
+    <t>末日之钟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%9C%B0%E8%AB%BE%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>桑地諾民族解放陣線</t>
+    <t>桑地诺民族解放阵线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -3269,7 +3236,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E7%B7%A3%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>邊緣政策</t>
+    <t>边缘政策</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NATO%E2%80%93Russia_relations</t>
@@ -3287,13 +3254,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%98%87%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>美蘇關係</t>
+    <t>美苏关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%98%87%E9%A6%96%E8%85%A6%E6%9C%83%E8%AD%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美蘇首腦會議列表</t>
+    <t>美苏首脑会议列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_conflicts_related_to_the_Cold_War</t>
@@ -3305,7 +3272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%A5%9E%E8%AE%BA</t>
@@ -3359,15 +3326,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%98%8E%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>開明專制</t>
+    <t>开明专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%9C%BA</t>
   </si>
   <si>
-    <t>自由市场</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%96%AF%E5%8D%A1%E6%8B%89%E8%BF%90%E5%8A%A8</t>
   </si>
   <si>
@@ -3407,7 +3371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80%E6%80%A7</t>
   </si>
   <si>
-    <t>客觀性</t>
+    <t>客观性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7</t>
@@ -3593,7 +3557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E8%96%A9%E9%9B%B7%C2%B7%E8%B2%9D%E5%8D%A1%E9%87%8C%E4%BA%9E</t>
   </si>
   <si>
-    <t>切薩雷·貝卡里亞</t>
+    <t>切萨雷·贝卡里亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gaetano_Filangieri</t>
@@ -3695,7 +3659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E5%B8%83%E6%8B%89%E5%85%8B</t>
   </si>
   <si>
-    <t>約瑟夫·布拉克</t>
+    <t>约瑟夫·布拉克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E5%8C%85%E6%96%AF%E5%A8%81%E5%B0%94</t>
@@ -3725,7 +3689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%96%AF%C2%B7%E5%93%88%E5%A5%87%E6%A3%AE</t>
   </si>
   <si>
-    <t>法蘭西斯·哈奇森</t>
+    <t>法兰西斯·哈奇森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BC%AA%E5%B0%94%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
@@ -3779,7 +3743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%A2%85%E6%A3%AE</t>
   </si>
   <si>
-    <t>喬治·梅森</t>
+    <t>乔治·梅森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%BD%98%E6%81%A9</t>
@@ -3791,7 +3755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3803,13 +3767,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikiquote.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
@@ -5404,7 +5368,7 @@
         <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -5430,10 +5394,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -5459,10 +5423,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="G45" t="n">
         <v>16</v>
@@ -5488,10 +5452,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -5517,10 +5481,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -5546,10 +5510,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -5575,10 +5539,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -5604,10 +5568,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -5633,10 +5597,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -5662,10 +5626,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -5691,10 +5655,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -5720,10 +5684,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -5749,10 +5713,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>11</v>
@@ -5778,10 +5742,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -5807,10 +5771,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -5836,10 +5800,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -5865,10 +5829,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -5894,10 +5858,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -5923,10 +5887,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>4</v>
@@ -5952,10 +5916,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -5981,10 +5945,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -6039,10 +6003,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -6097,10 +6061,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -6129,7 +6093,7 @@
         <v>81</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -6155,10 +6119,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -6184,10 +6148,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -6213,10 +6177,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -6242,10 +6206,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -6271,10 +6235,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F73" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -6329,10 +6293,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -6358,10 +6322,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F76" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -6387,10 +6351,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -6416,10 +6380,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F78" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -6445,10 +6409,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F79" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -6474,10 +6438,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F80" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -6503,10 +6467,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F81" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -6532,10 +6496,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -6561,10 +6525,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F83" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -6590,10 +6554,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F84" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -6619,10 +6583,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F85" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -6648,10 +6612,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F86" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -6677,10 +6641,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -6706,10 +6670,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -6735,10 +6699,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -6764,10 +6728,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -6793,10 +6757,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -6822,10 +6786,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -6851,10 +6815,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F93" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -6880,10 +6844,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F94" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G94" t="n">
         <v>6</v>
@@ -6909,10 +6873,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F95" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -6938,10 +6902,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F96" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -6967,10 +6931,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F97" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6996,10 +6960,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -7025,10 +6989,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -7054,10 +7018,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G100" t="n">
         <v>5</v>
@@ -7083,10 +7047,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -7112,10 +7076,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -7141,10 +7105,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F103" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G103" t="n">
         <v>50</v>
@@ -7170,10 +7134,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F104" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -7199,10 +7163,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F105" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -7228,10 +7192,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F106" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G106" t="n">
         <v>3</v>
@@ -7257,10 +7221,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F107" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -7286,10 +7250,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F108" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -7315,10 +7279,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G109" t="n">
         <v>9</v>
@@ -7344,10 +7308,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F110" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -7373,10 +7337,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F111" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -7402,10 +7366,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F112" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -7431,10 +7395,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F113" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -7460,10 +7424,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F114" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -7489,10 +7453,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -7518,10 +7482,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -7547,10 +7511,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F117" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -7576,10 +7540,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -7605,10 +7569,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F119" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -7634,10 +7598,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F120" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7663,10 +7627,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -7692,10 +7656,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -7721,10 +7685,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -7750,10 +7714,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7779,10 +7743,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7808,10 +7772,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7837,10 +7801,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -7866,10 +7830,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -7895,10 +7859,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -7924,10 +7888,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -7953,10 +7917,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -7982,10 +7946,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -8011,10 +7975,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -8040,10 +8004,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G134" t="n">
         <v>6</v>
@@ -8069,10 +8033,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -8098,10 +8062,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -8127,10 +8091,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -8156,10 +8120,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -8185,10 +8149,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -8214,10 +8178,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -8243,10 +8207,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -8272,10 +8236,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -8301,10 +8265,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -8330,10 +8294,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -8359,10 +8323,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -8388,10 +8352,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G146" t="n">
         <v>4</v>
@@ -8417,10 +8381,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -8446,10 +8410,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -8475,10 +8439,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -8504,10 +8468,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -8533,10 +8497,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G151" t="n">
         <v>4</v>
@@ -8562,10 +8526,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -8591,10 +8555,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G153" t="n">
         <v>10</v>
@@ -8620,10 +8584,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8649,10 +8613,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8678,10 +8642,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8707,10 +8671,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8736,10 +8700,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -8765,10 +8729,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8794,10 +8758,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8823,10 +8787,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G161" t="n">
         <v>4</v>
@@ -8852,10 +8816,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8881,10 +8845,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8910,10 +8874,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8939,10 +8903,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -8968,10 +8932,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G166" t="n">
         <v>5</v>
@@ -8997,10 +8961,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -9026,10 +8990,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -9055,10 +9019,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G169" t="n">
         <v>9</v>
@@ -9084,10 +9048,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -9113,10 +9077,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -9142,10 +9106,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -9171,10 +9135,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -9200,10 +9164,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -9229,10 +9193,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -9258,10 +9222,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G176" t="n">
         <v>4</v>
@@ -9287,10 +9251,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F177" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -9316,10 +9280,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -9345,10 +9309,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F179" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -9374,10 +9338,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F180" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -9403,10 +9367,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F181" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -9432,10 +9396,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F182" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -9461,10 +9425,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F183" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -9490,10 +9454,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G184" t="n">
         <v>11</v>
@@ -9519,10 +9483,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -9548,10 +9512,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9577,10 +9541,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>96</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -9606,10 +9570,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9635,10 +9599,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9664,10 +9628,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -9693,10 +9657,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9722,10 +9686,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -9751,10 +9715,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -9780,10 +9744,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9809,10 +9773,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>172</v>
       </c>
       <c r="G195" t="n">
         <v>14</v>
@@ -9838,10 +9802,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9867,10 +9831,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F197" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9896,10 +9860,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -9925,10 +9889,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F199" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9954,10 +9918,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F200" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9983,10 +9947,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F201" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -10012,10 +9976,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F202" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -10041,10 +10005,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F203" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -10070,10 +10034,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F204" t="s">
-        <v>394</v>
+        <v>106</v>
       </c>
       <c r="G204" t="n">
         <v>3</v>
@@ -10128,10 +10092,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G206" t="n">
         <v>3</v>
@@ -10157,10 +10121,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>36</v>
       </c>
       <c r="G207" t="n">
         <v>11</v>
@@ -10186,10 +10150,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G208" t="n">
         <v>5</v>
@@ -10215,10 +10179,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F209" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -10244,10 +10208,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F210" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G210" t="n">
         <v>6</v>
@@ -10273,10 +10237,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G211" t="n">
         <v>6</v>
@@ -10302,10 +10266,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G212" t="n">
         <v>12</v>
@@ -10331,10 +10295,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F213" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G213" t="n">
         <v>4</v>
@@ -10360,10 +10324,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F214" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -10389,10 +10353,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -10418,10 +10382,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F216" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -10447,10 +10411,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -10476,10 +10440,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F218" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G218" t="n">
         <v>8</v>
@@ -10505,10 +10469,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F219" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G219" t="n">
         <v>11</v>
@@ -10534,10 +10498,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10563,10 +10527,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -10592,10 +10556,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -10621,10 +10585,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10650,10 +10614,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G224" t="n">
         <v>3</v>
@@ -10679,10 +10643,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G225" t="n">
         <v>5</v>
@@ -10708,10 +10672,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10737,10 +10701,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10766,10 +10730,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10795,10 +10759,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G229" t="n">
         <v>7</v>
@@ -10824,10 +10788,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F230" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -10853,10 +10817,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F231" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G231" t="n">
         <v>3</v>
@@ -10882,10 +10846,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F232" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10911,10 +10875,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F233" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G233" t="n">
         <v>5</v>
@@ -10940,10 +10904,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F234" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10969,10 +10933,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F235" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10998,10 +10962,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F236" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -11027,10 +10991,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F237" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -11056,10 +11020,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F238" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -11085,10 +11049,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F239" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -11114,10 +11078,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F240" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -11143,10 +11107,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F241" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -11172,10 +11136,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F242" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -11201,10 +11165,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F243" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -11230,10 +11194,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F244" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -11259,10 +11223,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F245" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -11288,10 +11252,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F246" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -11317,10 +11281,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F247" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -11346,10 +11310,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F248" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -11375,10 +11339,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F249" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -11404,10 +11368,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F250" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -11433,10 +11397,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11462,10 +11426,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -11491,10 +11455,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11520,10 +11484,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11549,10 +11513,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F255" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11578,10 +11542,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F256" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G256" t="n">
         <v>8</v>
@@ -11607,10 +11571,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F257" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11636,10 +11600,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F258" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11665,10 +11629,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F259" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11694,10 +11658,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F260" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11723,10 +11687,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F261" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11752,10 +11716,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F262" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11781,10 +11745,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F263" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11810,10 +11774,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F264" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11839,10 +11803,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F265" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11868,10 +11832,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F266" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11897,10 +11861,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F267" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G267" t="n">
         <v>6</v>
@@ -11926,10 +11890,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F268" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11955,10 +11919,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F269" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11984,10 +11948,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F270" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G270" t="n">
         <v>3</v>
@@ -12013,10 +11977,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F271" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G271" t="n">
         <v>9</v>
@@ -12042,10 +12006,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F272" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -12071,10 +12035,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F273" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G273" t="n">
         <v>4</v>
@@ -12100,10 +12064,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F274" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G274" t="n">
         <v>21</v>
@@ -12129,10 +12093,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F275" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -12158,10 +12122,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F276" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -12187,10 +12151,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F277" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -12216,10 +12180,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F278" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -12245,10 +12209,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F279" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -12274,10 +12238,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F280" t="s">
-        <v>532</v>
+        <v>196</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -12303,10 +12267,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F281" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="G281" t="n">
         <v>12</v>
@@ -12332,10 +12296,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F282" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -12361,10 +12325,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F283" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G283" t="n">
         <v>5</v>
@@ -12390,10 +12354,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F284" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -12419,10 +12383,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F285" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -12448,10 +12412,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F286" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -12477,10 +12441,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F287" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="G287" t="n">
         <v>3</v>
@@ -12506,10 +12470,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F288" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="G288" t="n">
         <v>3</v>
@@ -12535,10 +12499,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F289" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -12564,10 +12528,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F290" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -12593,10 +12557,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F291" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="G291" t="n">
         <v>4</v>
@@ -12622,10 +12586,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F292" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12651,10 +12615,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F293" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12680,10 +12644,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F294" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -12709,10 +12673,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F295" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12738,10 +12702,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F296" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12767,10 +12731,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="F297" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12796,10 +12760,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F298" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12825,10 +12789,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F299" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12854,10 +12818,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F300" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12883,10 +12847,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F301" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -12912,10 +12876,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F302" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12941,10 +12905,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="F303" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -12970,10 +12934,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F304" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -12999,10 +12963,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F305" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -13028,10 +12992,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F306" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -13057,10 +13021,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F307" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -13086,10 +13050,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F308" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -13115,10 +13079,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F309" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G309" t="n">
         <v>3</v>
@@ -13144,10 +13108,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F310" t="s">
-        <v>584</v>
+        <v>273</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -13173,10 +13137,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F311" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -13202,10 +13166,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="F312" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -13231,10 +13195,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="F313" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -13260,10 +13224,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F314" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -13289,10 +13253,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F315" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -13318,10 +13282,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="F316" t="s">
-        <v>592</v>
+        <v>110</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -13347,10 +13311,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F317" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -13376,10 +13340,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F318" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -13405,10 +13369,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="F319" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G319" t="n">
         <v>3</v>
@@ -13434,10 +13398,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="F320" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="G320" t="n">
         <v>3</v>
@@ -13463,10 +13427,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F321" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13492,10 +13456,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F322" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -13521,10 +13485,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F323" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -13550,10 +13514,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="F324" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13579,10 +13543,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="F325" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13608,10 +13572,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="F326" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13637,10 +13601,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F327" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="G327" t="n">
         <v>4</v>
@@ -13666,10 +13630,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F328" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13695,10 +13659,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="F329" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13724,10 +13688,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="F330" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="G330" t="n">
         <v>13</v>
@@ -13753,10 +13717,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="F331" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13782,10 +13746,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="F332" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13811,10 +13775,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="F333" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13840,10 +13804,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="F334" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13869,10 +13833,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="F335" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -13898,10 +13862,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="F336" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13927,10 +13891,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="F337" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13956,10 +13920,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="F338" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13985,10 +13949,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="F339" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -14014,10 +13978,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="F340" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -14043,10 +14007,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="F341" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -14072,10 +14036,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="F342" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -14101,10 +14065,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="F343" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -14130,10 +14094,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="F344" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -14159,10 +14123,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="F345" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -14188,10 +14152,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="F346" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -14217,10 +14181,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="F347" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -14246,10 +14210,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="F348" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -14275,10 +14239,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="F349" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -14304,10 +14268,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="F350" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -14333,10 +14297,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="F351" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -14362,10 +14326,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="F352" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -14391,10 +14355,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="F353" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14420,10 +14384,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="F354" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -14449,10 +14413,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="F355" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -14478,10 +14442,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="F356" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14507,10 +14471,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="F357" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -14536,10 +14500,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="F358" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14565,10 +14529,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="F359" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -14594,10 +14558,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="F360" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14623,10 +14587,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="F361" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14652,10 +14616,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="F362" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14681,10 +14645,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="F363" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14710,10 +14674,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="F364" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14739,10 +14703,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="F365" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="G365" t="n">
         <v>2</v>
@@ -14768,10 +14732,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="F366" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14797,10 +14761,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="F367" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14826,10 +14790,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="F368" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -14855,10 +14819,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="F369" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14884,10 +14848,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="F370" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14913,10 +14877,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="F371" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -14942,10 +14906,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="F372" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14971,10 +14935,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="F373" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -15000,10 +14964,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="F374" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -15029,10 +14993,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="F375" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -15058,10 +15022,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="F376" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -15087,10 +15051,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="F377" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -15116,10 +15080,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="F378" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -15145,10 +15109,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="F379" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -15174,10 +15138,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="F380" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -15203,10 +15167,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="F381" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -15232,10 +15196,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="F382" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -15261,10 +15225,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="F383" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -15290,10 +15254,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="F384" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -15319,10 +15283,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="F385" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15348,10 +15312,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="F386" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -15377,10 +15341,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="F387" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -15406,10 +15370,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="F388" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -15435,10 +15399,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="F389" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -15464,10 +15428,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="F390" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15493,10 +15457,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="F391" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15522,10 +15486,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="F392" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15551,10 +15515,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="F393" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15580,10 +15544,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="F394" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15609,10 +15573,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="F395" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15638,10 +15602,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F396" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15667,10 +15631,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="F397" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15696,10 +15660,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="F398" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15725,10 +15689,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="F399" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15754,10 +15718,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="F400" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15783,10 +15747,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="F401" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15812,10 +15776,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="F402" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15841,10 +15805,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="F403" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15870,10 +15834,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="F404" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15899,10 +15863,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="F405" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15928,10 +15892,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="F406" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15957,10 +15921,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="F407" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15986,10 +15950,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="F408" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -16015,10 +15979,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="F409" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -16044,10 +16008,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="F410" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -16073,10 +16037,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="F411" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -16102,10 +16066,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="F412" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -16131,10 +16095,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="F413" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -16160,10 +16124,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="F414" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -16189,10 +16153,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="F415" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -16218,10 +16182,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="F416" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -16247,10 +16211,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="F417" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16276,10 +16240,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="F418" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16305,10 +16269,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="F419" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -16334,10 +16298,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="F420" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -16363,10 +16327,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="F421" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -16392,10 +16356,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="F422" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -16421,10 +16385,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="F423" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -16450,10 +16414,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="F424" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16479,10 +16443,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="F425" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16508,10 +16472,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="F426" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16537,10 +16501,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="F427" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16566,10 +16530,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="F428" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16595,10 +16559,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="F429" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16624,10 +16588,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="F430" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16653,10 +16617,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="F431" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16682,10 +16646,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="F432" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16711,10 +16675,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="F433" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16740,10 +16704,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="F434" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16769,10 +16733,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="F435" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16798,10 +16762,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="F436" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16827,10 +16791,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="F437" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16856,10 +16820,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="F438" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16885,10 +16849,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="F439" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16914,10 +16878,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="F440" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16943,10 +16907,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="F441" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16972,10 +16936,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="F442" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -17001,10 +16965,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="F443" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -17030,10 +16994,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="F444" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -17059,10 +17023,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="F445" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -17088,10 +17052,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="F446" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -17117,10 +17081,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="F447" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -17146,10 +17110,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="F448" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -17175,10 +17139,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="F449" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -17204,10 +17168,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="F450" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -17233,10 +17197,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="F451" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17262,10 +17226,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="F452" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -17291,10 +17255,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="F453" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17320,10 +17284,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="F454" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17349,10 +17313,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="F455" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17378,10 +17342,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="F456" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17407,10 +17371,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="F457" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17436,10 +17400,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="F458" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17465,10 +17429,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="F459" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17494,10 +17458,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="F460" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17523,10 +17487,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="F461" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17552,10 +17516,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="F462" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17581,10 +17545,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="F463" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17610,10 +17574,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="F464" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17639,10 +17603,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="F465" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17668,10 +17632,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="F466" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17697,10 +17661,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="F467" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17726,10 +17690,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="F468" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17755,10 +17719,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="F469" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17784,10 +17748,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="F470" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17813,10 +17777,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="F471" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17842,10 +17806,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="F472" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17871,10 +17835,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="F473" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17900,10 +17864,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="F474" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17929,10 +17893,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="F475" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17958,10 +17922,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="F476" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17987,10 +17951,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="F477" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -18016,10 +17980,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="F478" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -18045,10 +18009,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="F479" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -18074,10 +18038,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="F480" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -18103,10 +18067,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="F481" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -18132,10 +18096,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="F482" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -18161,10 +18125,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="F483" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -18190,10 +18154,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="F484" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -18219,10 +18183,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="F485" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18248,10 +18212,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="F486" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -18277,10 +18241,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="F487" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18306,10 +18270,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="F488" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18335,10 +18299,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="F489" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18364,10 +18328,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="F490" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18393,10 +18357,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="F491" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18422,10 +18386,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="F492" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18451,10 +18415,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="F493" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18480,10 +18444,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="F494" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18509,10 +18473,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="F495" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18538,10 +18502,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="F496" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18567,10 +18531,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="F497" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18596,10 +18560,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="F498" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18625,10 +18589,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="F499" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18654,10 +18618,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="F500" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18683,10 +18647,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="F501" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18712,10 +18676,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="F502" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18741,10 +18705,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="F503" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18770,10 +18734,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="F504" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18799,10 +18763,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="F505" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18828,10 +18792,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="F506" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18857,10 +18821,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="F507" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18886,10 +18850,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="F508" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18915,10 +18879,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F509" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18944,10 +18908,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="F510" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="G510" t="n">
         <v>2</v>
@@ -18973,10 +18937,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="F511" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -19002,10 +18966,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="F512" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -19031,10 +18995,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="F513" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -19060,10 +19024,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="F514" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -19089,10 +19053,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="F515" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -19118,10 +19082,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="F516" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -19147,10 +19111,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="F517" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -19176,10 +19140,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="F518" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -19205,10 +19169,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="F519" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -19234,10 +19198,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="F520" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -19263,10 +19227,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="F521" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -19292,10 +19256,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="F522" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19321,10 +19285,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="F523" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19350,10 +19314,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="F524" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19379,10 +19343,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="F525" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19408,10 +19372,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="F526" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19437,10 +19401,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="F527" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19466,10 +19430,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="F528" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19495,10 +19459,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F529" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19524,10 +19488,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="F530" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19553,10 +19517,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="F531" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19582,10 +19546,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F532" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19611,10 +19575,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
       <c r="F533" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19640,10 +19604,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="F534" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19669,10 +19633,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="F535" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19698,10 +19662,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="F536" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19727,10 +19691,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="F537" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19756,10 +19720,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="F538" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19785,10 +19749,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="F539" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19814,10 +19778,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="F540" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19843,10 +19807,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="F541" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19872,10 +19836,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="F542" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19901,10 +19865,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="F543" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19930,10 +19894,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
       <c r="F544" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19959,10 +19923,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="F545" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19988,10 +19952,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
       <c r="F546" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -20017,10 +19981,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="F547" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -20046,10 +20010,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="F548" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -20075,10 +20039,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="F549" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -20104,10 +20068,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="F550" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -20133,10 +20097,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="F551" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -20162,10 +20126,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="F552" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -20191,10 +20155,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="F553" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20220,10 +20184,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="F554" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -20249,10 +20213,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
       <c r="F555" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20278,10 +20242,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="F556" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20307,10 +20271,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="F557" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20336,10 +20300,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="F558" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20365,10 +20329,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1057</v>
+        <v>1046</v>
       </c>
       <c r="F559" t="s">
-        <v>1058</v>
+        <v>1047</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20394,10 +20358,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="F560" t="s">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20423,10 +20387,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="F561" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20452,10 +20416,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1063</v>
+        <v>1052</v>
       </c>
       <c r="F562" t="s">
-        <v>1064</v>
+        <v>1053</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20481,10 +20445,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1065</v>
+        <v>1054</v>
       </c>
       <c r="F563" t="s">
-        <v>1066</v>
+        <v>1055</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20510,10 +20474,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="F564" t="s">
-        <v>1068</v>
+        <v>1057</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20539,10 +20503,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1069</v>
+        <v>1058</v>
       </c>
       <c r="F565" t="s">
-        <v>1070</v>
+        <v>1059</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20568,10 +20532,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1071</v>
+        <v>1060</v>
       </c>
       <c r="F566" t="s">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20597,10 +20561,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1073</v>
+        <v>1062</v>
       </c>
       <c r="F567" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20626,10 +20590,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="F568" t="s">
-        <v>1076</v>
+        <v>1065</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20655,10 +20619,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1077</v>
+        <v>1066</v>
       </c>
       <c r="F569" t="s">
-        <v>1078</v>
+        <v>1067</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20684,10 +20648,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1079</v>
+        <v>1068</v>
       </c>
       <c r="F570" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20713,10 +20677,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="F571" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="G571" t="n">
         <v>4</v>
@@ -20742,10 +20706,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1083</v>
+        <v>1072</v>
       </c>
       <c r="F572" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20771,10 +20735,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="F573" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20800,10 +20764,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1087</v>
+        <v>1076</v>
       </c>
       <c r="F574" t="s">
-        <v>1088</v>
+        <v>1077</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20829,10 +20793,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1089</v>
+        <v>1078</v>
       </c>
       <c r="F575" t="s">
-        <v>1090</v>
+        <v>1079</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20858,10 +20822,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1091</v>
+        <v>1080</v>
       </c>
       <c r="F576" t="s">
-        <v>1092</v>
+        <v>1081</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20887,10 +20851,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1093</v>
+        <v>1082</v>
       </c>
       <c r="F577" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20916,10 +20880,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="F578" t="s">
-        <v>1096</v>
+        <v>1085</v>
       </c>
       <c r="G578" t="n">
         <v>3</v>
@@ -20945,10 +20909,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="F579" t="s">
-        <v>1098</v>
+        <v>1087</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20974,10 +20938,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1099</v>
+        <v>1088</v>
       </c>
       <c r="F580" t="s">
-        <v>1100</v>
+        <v>1089</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -21003,10 +20967,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="F581" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -21032,10 +20996,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="F582" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -21061,10 +21025,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1105</v>
+        <v>1094</v>
       </c>
       <c r="F583" t="s">
-        <v>1106</v>
+        <v>1095</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -21090,10 +21054,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="F584" t="s">
-        <v>1108</v>
+        <v>1097</v>
       </c>
       <c r="G584" t="n">
         <v>9</v>
@@ -21119,10 +21083,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1109</v>
+        <v>1098</v>
       </c>
       <c r="F585" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -21148,10 +21112,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="F586" t="s">
-        <v>1112</v>
+        <v>1101</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -21177,10 +21141,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1113</v>
+        <v>1102</v>
       </c>
       <c r="F587" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -21206,10 +21170,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1115</v>
+        <v>1104</v>
       </c>
       <c r="F588" t="s">
-        <v>1116</v>
+        <v>40</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21235,10 +21199,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="F589" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -21264,10 +21228,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="F590" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21293,10 +21257,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="F591" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -21322,10 +21286,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="F592" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21351,10 +21315,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="F593" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21380,10 +21344,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="F594" t="s">
-        <v>1128</v>
+        <v>1116</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21409,10 +21373,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="F595" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21438,10 +21402,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
       <c r="F596" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="G596" t="n">
         <v>9</v>
@@ -21467,10 +21431,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
       <c r="F597" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21496,10 +21460,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="F598" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21525,10 +21489,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="F599" t="s">
-        <v>1138</v>
+        <v>1126</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21554,10 +21518,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="F600" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21583,10 +21547,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="F601" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
       <c r="G601" t="n">
         <v>3</v>
@@ -21612,10 +21576,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="F602" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21641,10 +21605,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="F603" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21670,10 +21634,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
       <c r="F604" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21699,10 +21663,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
       <c r="F605" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21728,10 +21692,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="F606" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21757,10 +21721,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="F607" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21786,10 +21750,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="F608" t="s">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21815,10 +21779,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="F609" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21844,10 +21808,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="F610" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21873,10 +21837,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="F611" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21902,10 +21866,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="F612" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21931,10 +21895,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="F613" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21960,10 +21924,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="F614" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -21989,10 +21953,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="F615" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -22018,10 +21982,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="F616" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -22047,10 +22011,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="F617" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -22076,10 +22040,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="F618" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -22105,10 +22069,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="F619" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -22134,10 +22098,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="F620" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -22163,10 +22127,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1181</v>
+        <v>1169</v>
       </c>
       <c r="F621" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -22192,10 +22156,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1183</v>
+        <v>1171</v>
       </c>
       <c r="F622" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22221,10 +22185,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
       <c r="F623" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -22250,10 +22214,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1187</v>
+        <v>1175</v>
       </c>
       <c r="F624" t="s">
-        <v>1188</v>
+        <v>1176</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -22279,10 +22243,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
       <c r="F625" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -22308,10 +22272,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1191</v>
+        <v>1179</v>
       </c>
       <c r="F626" t="s">
-        <v>1192</v>
+        <v>1180</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -22337,10 +22301,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1193</v>
+        <v>1181</v>
       </c>
       <c r="F627" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22366,10 +22330,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1195</v>
+        <v>1183</v>
       </c>
       <c r="F628" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22395,10 +22359,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
       <c r="F629" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -22424,10 +22388,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="F630" t="s">
-        <v>1200</v>
+        <v>1188</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22453,10 +22417,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
       <c r="F631" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -22482,10 +22446,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1203</v>
+        <v>1191</v>
       </c>
       <c r="F632" t="s">
-        <v>1204</v>
+        <v>1192</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22511,10 +22475,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1205</v>
+        <v>1193</v>
       </c>
       <c r="F633" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22540,10 +22504,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1207</v>
+        <v>1195</v>
       </c>
       <c r="F634" t="s">
-        <v>1208</v>
+        <v>1196</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22569,10 +22533,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="F635" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22598,10 +22562,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="F636" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22627,10 +22591,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1213</v>
+        <v>1201</v>
       </c>
       <c r="F637" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22656,10 +22620,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="F638" t="s">
-        <v>1216</v>
+        <v>1204</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -22685,10 +22649,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1217</v>
+        <v>1205</v>
       </c>
       <c r="F639" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22714,10 +22678,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1219</v>
+        <v>1207</v>
       </c>
       <c r="F640" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22743,10 +22707,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="F641" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22772,10 +22736,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1223</v>
+        <v>1211</v>
       </c>
       <c r="F642" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="G642" t="n">
         <v>1</v>
@@ -22801,10 +22765,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="F643" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -22830,10 +22794,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
       <c r="F644" t="s">
-        <v>1228</v>
+        <v>1216</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -22859,10 +22823,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1229</v>
+        <v>1217</v>
       </c>
       <c r="F645" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -22888,10 +22852,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
       <c r="F646" t="s">
-        <v>1232</v>
+        <v>1220</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -22917,10 +22881,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="F647" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -22946,10 +22910,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
       <c r="F648" t="s">
-        <v>1236</v>
+        <v>1224</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -22975,10 +22939,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
       <c r="F649" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -23004,10 +22968,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="F650" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -23033,10 +22997,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="F651" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -23062,10 +23026,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="F652" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -23091,10 +23055,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="F653" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -23120,10 +23084,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="F654" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>
@@ -23149,10 +23113,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="F655" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -23178,10 +23142,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="F656" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -23207,10 +23171,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="F657" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -23236,10 +23200,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="F658" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -23265,10 +23229,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="F659" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="G659" t="n">
         <v>3</v>
@@ -23294,10 +23258,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="F660" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -23323,10 +23287,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="F661" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -23352,10 +23316,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="F662" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -23381,10 +23345,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="F663" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>

--- a/xlsx/资本主义_intext.xlsx
+++ b/xlsx/资本主义_intext.xlsx
@@ -29,7 +29,7 @@
     <t>资本主义 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_资本主义</t>
+    <t>体育运动_体育运动_竞争_资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
@@ -4740,7 +4740,7 @@
         <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
@@ -6306,7 +6306,7 @@
         <v>36</v>
       </c>
       <c r="G74" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -11091,7 +11091,7 @@
         <v>460</v>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
